--- a/data/trans_orig/POLIPATOLOGIA_Lim_2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_2-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>43267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33457</v>
+        <v>32009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56465</v>
+        <v>57152</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1467969179108423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1135126977160948</v>
+        <v>0.1086010816565899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1915756351059625</v>
+        <v>0.1939084056484349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -764,19 +764,19 @@
         <v>85909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69007</v>
+        <v>68444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103257</v>
+        <v>103482</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2990797247063951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2402366867826725</v>
+        <v>0.2382766816926741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3594727310160286</v>
+        <v>0.3602571609513884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -785,19 +785,19 @@
         <v>129176</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>109632</v>
+        <v>108242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>150660</v>
+        <v>150191</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2219580008771903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1883760947301051</v>
+        <v>0.1859888922567015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2588732430200151</v>
+        <v>0.2580680107905132</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>251471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238273</v>
+        <v>237586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>261281</v>
+        <v>262729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8532030820891577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8084243648940374</v>
+        <v>0.8060915943515647</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8864873022839052</v>
+        <v>0.8913989183434099</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -835,19 +835,19 @@
         <v>201336</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183988</v>
+        <v>183763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>218238</v>
+        <v>218801</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7009202752936049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6405272689839714</v>
+        <v>0.6397428390486116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7597633132173273</v>
+        <v>0.761723318307326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>417</v>
@@ -856,19 +856,19 @@
         <v>452807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431323</v>
+        <v>431792</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>472351</v>
+        <v>473741</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7780419991228097</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7411267569799851</v>
+        <v>0.7419319892094868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8116239052698949</v>
+        <v>0.8140111077432981</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>92200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>75338</v>
+        <v>74119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115011</v>
+        <v>113344</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.18238372442687</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1490288360375196</v>
+        <v>0.14661818531204</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2275062131230839</v>
+        <v>0.2242087748175673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>144</v>
@@ -981,19 +981,19 @@
         <v>157502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>136599</v>
+        <v>137609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>181933</v>
+        <v>179679</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3007118873820522</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2608025862390089</v>
+        <v>0.2627298229424793</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3473555223965938</v>
+        <v>0.343052148728712</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>220</v>
@@ -1002,19 +1002,19 @@
         <v>249702</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>220311</v>
+        <v>222293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>277438</v>
+        <v>282507</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2425961180460762</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2140411315390615</v>
+        <v>0.2159673141631759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2695421870911741</v>
+        <v>0.2744673709673336</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>413327</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390516</v>
+        <v>392183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>430189</v>
+        <v>431408</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.81761627557313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7724937868769158</v>
+        <v>0.7757912251824326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8509711639624803</v>
+        <v>0.8533818146879598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>336</v>
@@ -1052,19 +1052,19 @@
         <v>366263</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341832</v>
+        <v>344086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>387166</v>
+        <v>386156</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6992881126179478</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.652644477603406</v>
+        <v>0.656947851271288</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.739197413760991</v>
+        <v>0.7372701770575207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>732</v>
@@ -1073,19 +1073,19 @@
         <v>779590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>751854</v>
+        <v>746785</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>808981</v>
+        <v>806999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7574038819539238</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7304578129088258</v>
+        <v>0.725532629032666</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7859588684609385</v>
+        <v>0.7840326858368237</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>67469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53951</v>
+        <v>52996</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84412</v>
+        <v>84052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2082093194159288</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1664930717697943</v>
+        <v>0.1635457862877151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2604940144797899</v>
+        <v>0.2593826531681504</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1198,19 +1198,19 @@
         <v>90571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74596</v>
+        <v>74033</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107769</v>
+        <v>106961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2655881262138419</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2187432886365496</v>
+        <v>0.2170935345742404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3160187220573213</v>
+        <v>0.3136487912535613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>145</v>
@@ -1219,19 +1219,19 @@
         <v>158040</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136198</v>
+        <v>134852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181127</v>
+        <v>181430</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2376309420811256</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2047884295432604</v>
+        <v>0.2027649437444434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2723447569516547</v>
+        <v>0.272800030488363</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>256577</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>239634</v>
+        <v>239994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>270095</v>
+        <v>271050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7917906805840712</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7395059855202102</v>
+        <v>0.7406173468318499</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8335069282302058</v>
+        <v>0.8364542137122849</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>234</v>
@@ -1269,19 +1269,19 @@
         <v>250449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233251</v>
+        <v>234059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>266424</v>
+        <v>266987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7344118737861581</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6839812779426787</v>
+        <v>0.6863512087464387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7812567113634505</v>
+        <v>0.7829064654257596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -1290,19 +1290,19 @@
         <v>507026</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>483939</v>
+        <v>483636</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>528868</v>
+        <v>530214</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7623690579188743</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7276552430483452</v>
+        <v>0.7271999695116369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7952115704567395</v>
+        <v>0.7972350562555566</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>55575</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41898</v>
+        <v>43113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71702</v>
+        <v>70673</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.148603741675549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1120319753473031</v>
+        <v>0.1152813981822984</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.191727077250971</v>
+        <v>0.1889735813617524</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -1415,19 +1415,19 @@
         <v>123610</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>105217</v>
+        <v>104681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>142378</v>
+        <v>141776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3178029750907486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.270515424540731</v>
+        <v>0.2691357742392799</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3660552279072024</v>
+        <v>0.3645093540884858</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -1436,19 +1436,19 @@
         <v>179185</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>156825</v>
+        <v>158389</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204267</v>
+        <v>203124</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2348632176472477</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.205555188795116</v>
+        <v>0.2076051392922696</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.267738498299738</v>
+        <v>0.2662414829696602</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>318407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302280</v>
+        <v>303309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>332084</v>
+        <v>330869</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8513962583244511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8082729227490291</v>
+        <v>0.8110264186382476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.887968024652697</v>
+        <v>0.8847186018177016</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>252</v>
@@ -1486,19 +1486,19 @@
         <v>265341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>246573</v>
+        <v>247175</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283734</v>
+        <v>284270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6821970249092514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6339447720927979</v>
+        <v>0.6354906459115143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7294845754592689</v>
+        <v>0.7308642257607201</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>545</v>
@@ -1507,19 +1507,19 @@
         <v>583748</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>558666</v>
+        <v>559809</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>606108</v>
+        <v>604544</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7651367823527524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7322615017002622</v>
+        <v>0.7337585170303398</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7944448112048843</v>
+        <v>0.7923948607077304</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>46596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34781</v>
+        <v>35101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59932</v>
+        <v>60315</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2191530998815388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.163584080576887</v>
+        <v>0.1650902289078508</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2818779497412741</v>
+        <v>0.2836775250112888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -1632,19 +1632,19 @@
         <v>103385</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>89067</v>
+        <v>88707</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117750</v>
+        <v>118724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4708078822618202</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4056034981750932</v>
+        <v>0.4039662374337074</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5362222709203851</v>
+        <v>0.5406590845398831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -1653,19 +1653,19 @@
         <v>149981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129743</v>
+        <v>131202</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170439</v>
+        <v>172761</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3470105028612717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3001864216655888</v>
+        <v>0.3035623428643793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3943428237594889</v>
+        <v>0.3997170684573952</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>166022</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152686</v>
+        <v>152303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>177837</v>
+        <v>177517</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7808469001184613</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7181220502587258</v>
+        <v>0.7163224749887112</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8364159194231131</v>
+        <v>0.8349097710921491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -1703,19 +1703,19 @@
         <v>116206</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101841</v>
+        <v>100867</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130524</v>
+        <v>130884</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5291921177381798</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4637777290796148</v>
+        <v>0.4593409154601167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5943965018249067</v>
+        <v>0.5960337625662926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>268</v>
@@ -1724,19 +1724,19 @@
         <v>282228</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>261770</v>
+        <v>259448</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>302466</v>
+        <v>301007</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6529894971387282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6056571762405113</v>
+        <v>0.6002829315426048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6998135783344113</v>
+        <v>0.6964376571356208</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>64047</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49249</v>
+        <v>50723</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78769</v>
+        <v>79992</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.233763722607936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1797551050189504</v>
+        <v>0.1851332084909351</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2874997232990735</v>
+        <v>0.2919633051770641</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>92</v>
@@ -1849,19 +1849,19 @@
         <v>94368</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79685</v>
+        <v>79699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109990</v>
+        <v>110527</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3369918567390282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2845583858277274</v>
+        <v>0.2846086106390616</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3927787260801612</v>
+        <v>0.3946962061761137</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>153</v>
@@ -1870,19 +1870,19 @@
         <v>158415</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>137848</v>
+        <v>136481</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>181420</v>
+        <v>181294</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2859414323776989</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2488178919634089</v>
+        <v>0.2463500088271043</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3274666432492473</v>
+        <v>0.327239211288677</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>209934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195212</v>
+        <v>193989</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224732</v>
+        <v>223258</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.766236277392064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7125002767009265</v>
+        <v>0.7080366948229364</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8202448949810496</v>
+        <v>0.8148667915090652</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>177</v>
@@ -1920,19 +1920,19 @@
         <v>185663</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>170041</v>
+        <v>169504</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200346</v>
+        <v>200332</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6630081432609719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6072212739198388</v>
+        <v>0.6053037938238863</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7154416141722727</v>
+        <v>0.7153913893609384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>377</v>
@@ -1941,19 +1941,19 @@
         <v>395597</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>372592</v>
+        <v>372718</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>416164</v>
+        <v>417531</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7140585676223011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6725333567507527</v>
+        <v>0.6727607887113231</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7511821080365911</v>
+        <v>0.7536499911728958</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>104464</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>85560</v>
+        <v>84599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>126062</v>
+        <v>123987</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1576128405839023</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.129091094652291</v>
+        <v>0.1276407275990956</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1902000445156595</v>
+        <v>0.1870695694937159</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>171</v>
@@ -2066,19 +2066,19 @@
         <v>190343</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>166483</v>
+        <v>163813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213195</v>
+        <v>212775</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2743274843802008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2399399214522794</v>
+        <v>0.2360919381459846</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3072621498879602</v>
+        <v>0.306657182081397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>269</v>
@@ -2087,19 +2087,19 @@
         <v>294807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265691</v>
+        <v>267039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>328451</v>
+        <v>331136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2173064527698978</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1958444788273997</v>
+        <v>0.1968386223984263</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2421058065958905</v>
+        <v>0.244085424157657</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>558324</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>536726</v>
+        <v>538801</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>577228</v>
+        <v>578189</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8423871594160978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8097999554843405</v>
+        <v>0.8129304305062841</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.870908905347709</v>
+        <v>0.8723592724009044</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>465</v>
@@ -2137,19 +2137,19 @@
         <v>503510</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>480658</v>
+        <v>481078</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527370</v>
+        <v>530040</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7256725156197992</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6927378501120398</v>
+        <v>0.6933428179186026</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7600600785477206</v>
+        <v>0.7639080618540146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>985</v>
@@ -2158,19 +2158,19 @@
         <v>1061834</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1028190</v>
+        <v>1025505</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1090950</v>
+        <v>1089602</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7826935472301022</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7578941934041095</v>
+        <v>0.7559145758423429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8041555211726007</v>
+        <v>0.8031613776015736</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>108988</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88745</v>
+        <v>88760</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>129482</v>
+        <v>131526</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.139890507682158</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1139077865309744</v>
+        <v>0.1139268438160812</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1661949037628656</v>
+        <v>0.1688179846221428</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -2283,19 +2283,19 @@
         <v>192921</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>169484</v>
+        <v>166726</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>219558</v>
+        <v>218540</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2341693433075521</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2057210964436769</v>
+        <v>0.2023732955940037</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2665015837637981</v>
+        <v>0.2652660337869728</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>274</v>
@@ -2304,19 +2304,19 @@
         <v>301910</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>268333</v>
+        <v>270443</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>338052</v>
+        <v>334716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1883460678141788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1673996840777736</v>
+        <v>0.1687157509493077</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2108936536389797</v>
+        <v>0.208812138628752</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>670110</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>649616</v>
+        <v>647572</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>690353</v>
+        <v>690338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.860109492317842</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8338050962371344</v>
+        <v>0.8311820153778571</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8860922134690257</v>
+        <v>0.8860731561839188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>580</v>
@@ -2354,19 +2354,19 @@
         <v>630932</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>604295</v>
+        <v>605313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>654369</v>
+        <v>657127</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7658306566924479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7334984162362022</v>
+        <v>0.7347339662130274</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7942789035563231</v>
+        <v>0.7976267044059964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1200</v>
@@ -2375,19 +2375,19 @@
         <v>1301041</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1264899</v>
+        <v>1268235</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1334618</v>
+        <v>1332508</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8116539321858212</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7891063463610204</v>
+        <v>0.7911878613712481</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8326003159222266</v>
+        <v>0.8312842490506923</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>582606</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>539454</v>
+        <v>538682</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>633614</v>
+        <v>630537</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1700157024300643</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1574230628536044</v>
+        <v>0.1571977580252807</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1849007873077533</v>
+        <v>0.1840028520501623</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>962</v>
@@ -2500,19 +2500,19 @@
         <v>1038610</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>982004</v>
+        <v>980623</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1102056</v>
+        <v>1097712</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2918829053032623</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2759750294189788</v>
+        <v>0.2755867539989996</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3097135340318662</v>
+        <v>0.3084926289440859</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1492</v>
@@ -2521,19 +2521,19 @@
         <v>1621216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1547598</v>
+        <v>1551982</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1690840</v>
+        <v>1692252</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2320966924990696</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.221557444366412</v>
+        <v>0.2221850620732218</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.24206427845719</v>
+        <v>0.2422663433221398</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>2844173</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2793165</v>
+        <v>2796242</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2887325</v>
+        <v>2888097</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8299842975699357</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8150992126922465</v>
+        <v>0.8159971479498377</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8425769371463954</v>
+        <v>0.8428022419747191</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2336</v>
@@ -2571,19 +2571,19 @@
         <v>2519699</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2456253</v>
+        <v>2460597</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2576305</v>
+        <v>2577686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7081170946967377</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6902864659681341</v>
+        <v>0.6915073710559142</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7240249705810212</v>
+        <v>0.7244132460010004</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5015</v>
@@ -2592,19 +2592,19 @@
         <v>5363872</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5294248</v>
+        <v>5292836</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5437490</v>
+        <v>5433106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7679033075009304</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7579357215428097</v>
+        <v>0.7577336566778601</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.778442555633588</v>
+        <v>0.7778149379267781</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>42444</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31371</v>
+        <v>31630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55002</v>
+        <v>55694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1444832574255489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1067904320299573</v>
+        <v>0.1076737581374227</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1872322979600076</v>
+        <v>0.1895898291382499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -2961,19 +2961,19 @@
         <v>92008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75280</v>
+        <v>75819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109757</v>
+        <v>106894</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3186953986899626</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2607531076867206</v>
+        <v>0.2626197218023505</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3801710501943228</v>
+        <v>0.3702556173523422</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -2982,19 +2982,19 @@
         <v>134452</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>115058</v>
+        <v>110719</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158105</v>
+        <v>154902</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2308329163489059</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1975361328800235</v>
+        <v>0.1900875239133191</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2714409610565225</v>
+        <v>0.2659423166450769</v>
       </c>
     </row>
     <row r="5">
@@ -3011,19 +3011,19 @@
         <v>251317</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238759</v>
+        <v>238067</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>262390</v>
+        <v>262131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8555167425744511</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8127677020399925</v>
+        <v>0.8104101708617506</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.893209567970043</v>
+        <v>0.8923262418625773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -3032,19 +3032,19 @@
         <v>196695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>178946</v>
+        <v>181809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213423</v>
+        <v>212884</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6813046013100373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6198289498056772</v>
+        <v>0.6297443826476579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7392468923132794</v>
+        <v>0.7373802781976497</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>418</v>
@@ -3053,19 +3053,19 @@
         <v>448012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>424359</v>
+        <v>427562</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>467406</v>
+        <v>471745</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7691670836510941</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7285590389434775</v>
+        <v>0.7340576833549232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8024638671199765</v>
+        <v>0.8099124760866809</v>
       </c>
     </row>
     <row r="6">
@@ -3157,19 +3157,19 @@
         <v>67031</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52735</v>
+        <v>52729</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82803</v>
+        <v>82466</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1333748473057532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1049300604983721</v>
+        <v>0.1049168110475431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1647572640898844</v>
+        <v>0.1640865141601931</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>124</v>
@@ -3178,19 +3178,19 @@
         <v>140391</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121040</v>
+        <v>118663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162987</v>
+        <v>160912</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2683905777918311</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2313967388638055</v>
+        <v>0.2268524235036124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3115885451769327</v>
+        <v>0.3076213526959994</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>190</v>
@@ -3199,19 +3199,19 @@
         <v>207422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183056</v>
+        <v>181876</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>237133</v>
+        <v>234130</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2022325704581346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1784760478026356</v>
+        <v>0.1773261377558269</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2312008702468323</v>
+        <v>0.2282728146657537</v>
       </c>
     </row>
     <row r="8">
@@ -3228,19 +3228,19 @@
         <v>435544</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>419772</v>
+        <v>420109</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>449840</v>
+        <v>449846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8666251526942468</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8352427359101157</v>
+        <v>0.8359134858398068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8950699395016279</v>
+        <v>0.895083188952457</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -3249,19 +3249,19 @@
         <v>382693</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360097</v>
+        <v>362172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402044</v>
+        <v>404421</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7316094222081689</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6884114548230673</v>
+        <v>0.6923786473040006</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7686032611361945</v>
+        <v>0.7731475764963877</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>769</v>
@@ -3270,19 +3270,19 @@
         <v>818237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>788526</v>
+        <v>791529</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>842603</v>
+        <v>843783</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7977674295418654</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7687991297531677</v>
+        <v>0.7717271853342467</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8215239521973646</v>
+        <v>0.8226738622441737</v>
       </c>
     </row>
     <row r="9">
@@ -3374,19 +3374,19 @@
         <v>37853</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27202</v>
+        <v>28560</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50356</v>
+        <v>49790</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1188237795652897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08538915235910574</v>
+        <v>0.0896531570221529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1580699002147186</v>
+        <v>0.1562952391545874</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -3395,19 +3395,19 @@
         <v>77261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62017</v>
+        <v>61700</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94440</v>
+        <v>93261</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2297329947443458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1844038861194449</v>
+        <v>0.1834629986394551</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2808140389247955</v>
+        <v>0.2773076562013204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>112</v>
@@ -3416,19 +3416,19 @@
         <v>115114</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98430</v>
+        <v>96795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>139009</v>
+        <v>134800</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1757809461223816</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1503038047028291</v>
+        <v>0.1478069927019108</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2122682931975168</v>
+        <v>0.2058414402575026</v>
       </c>
     </row>
     <row r="11">
@@ -3445,19 +3445,19 @@
         <v>280712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>268209</v>
+        <v>268775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291363</v>
+        <v>290005</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8811762204347103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8419300997852819</v>
+        <v>0.8437047608454117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9146108476408955</v>
+        <v>0.9103468429778471</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>263</v>
@@ -3466,19 +3466,19 @@
         <v>259048</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>241869</v>
+        <v>243048</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274292</v>
+        <v>274609</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7702670052556542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7191859610752047</v>
+        <v>0.7226923437986796</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8155961138805551</v>
+        <v>0.8165370013605449</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>555</v>
@@ -3487,19 +3487,19 @@
         <v>539760</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>515865</v>
+        <v>520074</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>556444</v>
+        <v>558079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8242190538776184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7877317068024832</v>
+        <v>0.7941585597424974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8496961952971709</v>
+        <v>0.8521930072980892</v>
       </c>
     </row>
     <row r="12">
@@ -3591,19 +3591,19 @@
         <v>61442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48479</v>
+        <v>48534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78182</v>
+        <v>76457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1660758232881365</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.131036578500232</v>
+        <v>0.1311864329155193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2113233478593055</v>
+        <v>0.2066601680435896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -3612,19 +3612,19 @@
         <v>120977</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102709</v>
+        <v>102175</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>139672</v>
+        <v>142252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3123742938257977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2652051349912368</v>
+        <v>0.26382493140362</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3606467351777612</v>
+        <v>0.367306554221799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -3633,19 +3633,19 @@
         <v>182419</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>158804</v>
+        <v>158517</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207121</v>
+        <v>209171</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2408980553497503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2097125023637112</v>
+        <v>0.2093336646283625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2735185074969027</v>
+        <v>0.2762254884879063</v>
       </c>
     </row>
     <row r="14">
@@ -3662,19 +3662,19 @@
         <v>308522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291782</v>
+        <v>293507</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321485</v>
+        <v>321430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8339241767118635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.788676652140695</v>
+        <v>0.7933398319564102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8689634214997681</v>
+        <v>0.8688135670844807</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>253</v>
@@ -3683,19 +3683,19 @@
         <v>266306</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>247611</v>
+        <v>245031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284574</v>
+        <v>285108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6876257061742023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6393532648222389</v>
+        <v>0.6326934457782009</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7347948650087631</v>
+        <v>0.73617506859638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>545</v>
@@ -3704,19 +3704,19 @@
         <v>574828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>550126</v>
+        <v>548076</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>598443</v>
+        <v>598730</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7591019446502497</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7264814925030977</v>
+        <v>0.7237745115120938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7902874976362888</v>
+        <v>0.7906663353716374</v>
       </c>
     </row>
     <row r="15">
@@ -3808,19 +3808,19 @@
         <v>32282</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23394</v>
+        <v>23246</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43507</v>
+        <v>43875</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1528362871887406</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1107559383020507</v>
+        <v>0.1100539199989072</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2059790774479342</v>
+        <v>0.2077212156038827</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>62</v>
@@ -3829,19 +3829,19 @@
         <v>63968</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51974</v>
+        <v>51226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78351</v>
+        <v>77651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2926425317263093</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2377716615381298</v>
+        <v>0.2343509939570652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3584448010849398</v>
+        <v>0.3552390537252706</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>95</v>
@@ -3850,19 +3850,19 @@
         <v>96250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>79324</v>
+        <v>79346</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113174</v>
+        <v>115619</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2239374014037774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1845573641027671</v>
+        <v>0.1846089476745517</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2633118154876759</v>
+        <v>0.2690003874083073</v>
       </c>
     </row>
     <row r="17">
@@ -3879,19 +3879,19 @@
         <v>178939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167714</v>
+        <v>167346</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187827</v>
+        <v>187975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8471637128112594</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7940209225520661</v>
+        <v>0.7922787843961174</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8892440616979493</v>
+        <v>0.889946080001093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -3900,19 +3900,19 @@
         <v>154619</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140236</v>
+        <v>140936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>166613</v>
+        <v>167361</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7073574682736907</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6415551989150603</v>
+        <v>0.6447609462747296</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7622283384618702</v>
+        <v>0.7656490060429352</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>340</v>
@@ -3921,19 +3921,19 @@
         <v>333558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316634</v>
+        <v>314189</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>350484</v>
+        <v>350462</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7760625985962225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7366881845123242</v>
+        <v>0.7309996125916927</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8154426358972329</v>
+        <v>0.8153910523254483</v>
       </c>
     </row>
     <row r="18">
@@ -4025,19 +4025,19 @@
         <v>48558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36559</v>
+        <v>36751</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62417</v>
+        <v>62569</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1845439704349889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1389442000903094</v>
+        <v>0.1396731910721216</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2372150686691168</v>
+        <v>0.237794042260622</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -4046,19 +4046,19 @@
         <v>73723</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59938</v>
+        <v>59249</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>88654</v>
+        <v>89060</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2699347024414343</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2194594154909047</v>
+        <v>0.2169388526353386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.324604329470872</v>
+        <v>0.3260903550724235</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>115</v>
@@ -4067,19 +4067,19 @@
         <v>122281</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102989</v>
+        <v>103981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>141916</v>
+        <v>143873</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2280349013757405</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1920577897274471</v>
+        <v>0.1939089633286187</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2646519395003791</v>
+        <v>0.2683003674672184</v>
       </c>
     </row>
     <row r="20">
@@ -4096,19 +4096,19 @@
         <v>214565</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200706</v>
+        <v>200554</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226564</v>
+        <v>226372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8154560295650112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7627849313308832</v>
+        <v>0.7622059577393784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8610557999096906</v>
+        <v>0.8603268089278793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>198</v>
@@ -4117,19 +4117,19 @@
         <v>199392</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>184461</v>
+        <v>184055</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213177</v>
+        <v>213866</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7300652975585656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.675395670529128</v>
+        <v>0.6739096449275765</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7805405845090952</v>
+        <v>0.7830611473646611</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>407</v>
@@ -4138,19 +4138,19 @@
         <v>413957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>394322</v>
+        <v>392365</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>433249</v>
+        <v>432257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7719650986242594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7353480604996209</v>
+        <v>0.7316996325327814</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8079422102725528</v>
+        <v>0.8060910366713813</v>
       </c>
     </row>
     <row r="21">
@@ -4242,19 +4242,19 @@
         <v>92796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76998</v>
+        <v>75354</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>115048</v>
+        <v>111928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1413376768577855</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1172753553346591</v>
+        <v>0.1147709883757828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1752290633072056</v>
+        <v>0.1704773036612808</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -4263,19 +4263,19 @@
         <v>147553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125884</v>
+        <v>126907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169342</v>
+        <v>171284</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2134445727206254</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1820996426029832</v>
+        <v>0.1835787166213211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2449637501632794</v>
+        <v>0.2477725611296322</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>215</v>
@@ -4284,19 +4284,19 @@
         <v>240349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>214215</v>
+        <v>213000</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>271029</v>
+        <v>272495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1783202718262416</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1589304376976678</v>
+        <v>0.1580295297711039</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2010822614071224</v>
+        <v>0.2021698901144652</v>
       </c>
     </row>
     <row r="23">
@@ -4313,19 +4313,19 @@
         <v>563762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>541510</v>
+        <v>544630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>579560</v>
+        <v>581204</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8586623231422145</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8247709366927946</v>
+        <v>0.8295226963387193</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.882724644665341</v>
+        <v>0.8852290116242173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>516</v>
@@ -4334,19 +4334,19 @@
         <v>543741</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>521952</v>
+        <v>520010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>565410</v>
+        <v>564387</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7865554272793746</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7550362498367206</v>
+        <v>0.7522274388703679</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8179003573970166</v>
+        <v>0.8164212833786789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1011</v>
@@ -4355,19 +4355,19 @@
         <v>1107503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1076823</v>
+        <v>1075357</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1133637</v>
+        <v>1134852</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8216797281737583</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7989177385928775</v>
+        <v>0.7978301098855348</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8410695623023321</v>
+        <v>0.841970470228896</v>
       </c>
     </row>
     <row r="24">
@@ -4459,19 +4459,19 @@
         <v>124121</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104902</v>
+        <v>104894</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>145622</v>
+        <v>146352</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1594188940677686</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.134734620105882</v>
+        <v>0.1347239626137822</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1870349232070852</v>
+        <v>0.1879718381858379</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -4480,19 +4480,19 @@
         <v>197581</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>170888</v>
+        <v>174312</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>222981</v>
+        <v>224010</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2391536091438563</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.206844977622745</v>
+        <v>0.2109887435346894</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2698987032257514</v>
+        <v>0.2711440122115524</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>287</v>
@@ -4501,19 +4501,19 @@
         <v>321702</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>290932</v>
+        <v>289812</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>354097</v>
+        <v>354440</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2004683974539695</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1812941171821925</v>
+        <v>0.1805964259969122</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2206557894458391</v>
+        <v>0.2208694797588002</v>
       </c>
     </row>
     <row r="26">
@@ -4530,19 +4530,19 @@
         <v>654462</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>632961</v>
+        <v>632231</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>673681</v>
+        <v>673689</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8405811059322313</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.812965076792915</v>
+        <v>0.8120281618141622</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8652653798941181</v>
+        <v>0.8652760373862178</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>588</v>
@@ -4551,19 +4551,19 @@
         <v>628586</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>603186</v>
+        <v>602157</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>655279</v>
+        <v>651855</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7608463908561437</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7301012967742486</v>
+        <v>0.7288559877884476</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.793155022377255</v>
+        <v>0.7890112564653107</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1218</v>
@@ -4572,19 +4572,19 @@
         <v>1283048</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1250653</v>
+        <v>1250310</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1313818</v>
+        <v>1314938</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7995316025460305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7793442105541607</v>
+        <v>0.7791305202411998</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8187058828178075</v>
+        <v>0.8194035740030877</v>
       </c>
     </row>
     <row r="27">
@@ -4676,19 +4676,19 @@
         <v>506527</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>465671</v>
+        <v>466111</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>551658</v>
+        <v>549539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1492264490404378</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1371901229543218</v>
+        <v>0.1373197629726972</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1625223489518376</v>
+        <v>0.1618981543279248</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>807</v>
@@ -4697,19 +4697,19 @@
         <v>913463</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>861862</v>
+        <v>854736</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>970974</v>
+        <v>971131</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2577096007738456</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2431519885744115</v>
+        <v>0.2411415550930993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2739350984640687</v>
+        <v>0.2739791848419643</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1306</v>
@@ -4718,19 +4718,19 @@
         <v>1419989</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1352167</v>
+        <v>1354016</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1491537</v>
+        <v>1492050</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2046420785880363</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1948678771085134</v>
+        <v>0.1951342623560994</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2149532441470101</v>
+        <v>0.2150270692734065</v>
       </c>
     </row>
     <row r="29">
@@ -4747,19 +4747,19 @@
         <v>2887823</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2842692</v>
+        <v>2844811</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2928679</v>
+        <v>2928239</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8507735509595622</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8374776510481624</v>
+        <v>0.8381018456720752</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8628098770456781</v>
+        <v>0.8626802370273029</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2531</v>
@@ -4768,19 +4768,19 @@
         <v>2631079</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2573568</v>
+        <v>2573411</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2682680</v>
+        <v>2689806</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7422903992261544</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7260649015359313</v>
+        <v>0.7260208151580357</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7568480114255886</v>
+        <v>0.758858444906901</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5263</v>
@@ -4789,19 +4789,19 @@
         <v>5518903</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5447355</v>
+        <v>5446842</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5586725</v>
+        <v>5584876</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7953579214119637</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7850467558529899</v>
+        <v>0.7849729307265936</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8051321228914864</v>
+        <v>0.8048657376439006</v>
       </c>
     </row>
     <row r="30">
@@ -5137,19 +5137,19 @@
         <v>49749</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38281</v>
+        <v>38893</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61962</v>
+        <v>62958</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1560281124056855</v>
+        <v>0.1560281124056856</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1200610303523518</v>
+        <v>0.1219795960249442</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1943336341645967</v>
+        <v>0.1974568534815163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -5158,19 +5158,19 @@
         <v>77050</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66731</v>
+        <v>65859</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89758</v>
+        <v>89099</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2437833984299624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2111345016640406</v>
+        <v>0.2083746638425193</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2839886848307913</v>
+        <v>0.2819046013923885</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>209</v>
@@ -5179,19 +5179,19 @@
         <v>126799</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110863</v>
+        <v>112289</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143576</v>
+        <v>145328</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1997133121712226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1746125314039359</v>
+        <v>0.176858912698316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2261372656030485</v>
+        <v>0.2288974780163318</v>
       </c>
     </row>
     <row r="5">
@@ -5208,19 +5208,19 @@
         <v>269096</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256883</v>
+        <v>255887</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>280564</v>
+        <v>279952</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8439718875943145</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8056663658354034</v>
+        <v>0.802543146518484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8799389696476486</v>
+        <v>0.878020403975056</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>390</v>
@@ -5229,19 +5229,19 @@
         <v>239011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>226303</v>
+        <v>226962</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249330</v>
+        <v>250202</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7562166015700377</v>
+        <v>0.7562166015700378</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7160113151692087</v>
+        <v>0.7180953986076116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7888654983359594</v>
+        <v>0.791625336157481</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>660</v>
@@ -5250,19 +5250,19 @@
         <v>508107</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>491330</v>
+        <v>489578</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524043</v>
+        <v>522617</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8002866878287774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.773862734396952</v>
+        <v>0.7711025219836684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.825387468596064</v>
+        <v>0.8231410873016841</v>
       </c>
     </row>
     <row r="6">
@@ -5354,19 +5354,19 @@
         <v>76427</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60276</v>
+        <v>60970</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95153</v>
+        <v>95160</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1440252290123105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1135900547666443</v>
+        <v>0.1148974626465096</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1793149573194251</v>
+        <v>0.1793290931092918</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -5375,19 +5375,19 @@
         <v>167745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>147449</v>
+        <v>148546</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186631</v>
+        <v>185137</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3069475273925001</v>
+        <v>0.3069475273925</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2698092656837658</v>
+        <v>0.2718171861272529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3415058386107094</v>
+        <v>0.3387715571191879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>311</v>
@@ -5396,19 +5396,19 @@
         <v>244172</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>219458</v>
+        <v>218519</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>273588</v>
+        <v>269648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.226684867639932</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2037413509864369</v>
+        <v>0.2028690671279573</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2539949228491892</v>
+        <v>0.2503367524617719</v>
       </c>
     </row>
     <row r="8">
@@ -5425,19 +5425,19 @@
         <v>454220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>435494</v>
+        <v>435487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470371</v>
+        <v>469677</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8559747709876894</v>
+        <v>0.8559747709876895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8206850426805745</v>
+        <v>0.8206709068907084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8864099452333556</v>
+        <v>0.8851025373534905</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -5446,19 +5446,19 @@
         <v>378749</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359863</v>
+        <v>361357</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399045</v>
+        <v>397948</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6930524726074999</v>
+        <v>0.6930524726074998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6584941613892904</v>
+        <v>0.6612284428808121</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7301907343162342</v>
+        <v>0.7281828138727471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>788</v>
@@ -5467,19 +5467,19 @@
         <v>832969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>803553</v>
+        <v>807493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857683</v>
+        <v>858622</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7733151323600681</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7460050771508107</v>
+        <v>0.7496632475382281</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7962586490135622</v>
+        <v>0.7971309328720428</v>
       </c>
     </row>
     <row r="9">
@@ -5571,19 +5571,19 @@
         <v>73318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59744</v>
+        <v>61357</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86146</v>
+        <v>88014</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2320235848038526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1890666715300552</v>
+        <v>0.1941709377322605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2726185501402709</v>
+        <v>0.2785305405201667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>207</v>
@@ -5592,19 +5592,19 @@
         <v>117196</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>102585</v>
+        <v>102489</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>130608</v>
+        <v>130782</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3288512200960677</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2878527321747916</v>
+        <v>0.2875816606514771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3664846044552482</v>
+        <v>0.3669710603145282</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -5613,19 +5613,19 @@
         <v>190514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>172303</v>
+        <v>170330</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>208869</v>
+        <v>211837</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.283345502357816</v>
+        <v>0.2833455023578159</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2562598526301763</v>
+        <v>0.2533264671643603</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3106437418939906</v>
+        <v>0.3150575249530977</v>
       </c>
     </row>
     <row r="11">
@@ -5642,19 +5642,19 @@
         <v>242675</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>229847</v>
+        <v>227979</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>256249</v>
+        <v>254636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7679764151961473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7273814498597295</v>
+        <v>0.7214694594798333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8109333284699448</v>
+        <v>0.8058290622677398</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>329</v>
@@ -5663,19 +5663,19 @@
         <v>239185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225773</v>
+        <v>225599</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>253796</v>
+        <v>253892</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6711487799039322</v>
+        <v>0.6711487799039323</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6335153955447519</v>
+        <v>0.6330289396854719</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7121472678252083</v>
+        <v>0.7124183393485229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>590</v>
@@ -5684,19 +5684,19 @@
         <v>481861</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>463506</v>
+        <v>460538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>500072</v>
+        <v>502045</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7166544976421843</v>
+        <v>0.716654497642184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6893562581060096</v>
+        <v>0.6849424750469022</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7437401473698239</v>
+        <v>0.7466735328356398</v>
       </c>
     </row>
     <row r="12">
@@ -5788,19 +5788,19 @@
         <v>88890</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71026</v>
+        <v>71261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108490</v>
+        <v>109933</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2382185856287493</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1903442513008853</v>
+        <v>0.1909730921424221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2907449033226645</v>
+        <v>0.2946127668079888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -5809,19 +5809,19 @@
         <v>142965</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128192</v>
+        <v>127560</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161870</v>
+        <v>163239</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3388104162071059</v>
+        <v>0.3388104162071058</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3037994101620935</v>
+        <v>0.3023021650064056</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3836148260732098</v>
+        <v>0.3868570899842417</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>342</v>
@@ -5830,19 +5830,19 @@
         <v>231855</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>206387</v>
+        <v>206294</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259536</v>
+        <v>261208</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.291602457187836</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2595714149407302</v>
+        <v>0.2594538435396691</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3264162297178201</v>
+        <v>0.3285193874137169</v>
       </c>
     </row>
     <row r="14">
@@ -5859,19 +5859,19 @@
         <v>284255</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>264655</v>
+        <v>263212</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>302119</v>
+        <v>301884</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7617814143712507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7092550966773354</v>
+        <v>0.7053872331920111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8096557486991145</v>
+        <v>0.8090269078575781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -5880,19 +5880,19 @@
         <v>278996</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>260091</v>
+        <v>258722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>293769</v>
+        <v>294401</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6611895837928943</v>
+        <v>0.6611895837928944</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6163851739267903</v>
+        <v>0.6131429100157584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6962005898379066</v>
+        <v>0.6976978349935944</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>549</v>
@@ -5901,19 +5901,19 @@
         <v>563252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>535571</v>
+        <v>533899</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>588720</v>
+        <v>588813</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.708397542812164</v>
+        <v>0.7083975428121639</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6735837702821799</v>
+        <v>0.6714806125862839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7404285850592699</v>
+        <v>0.740546156460331</v>
       </c>
     </row>
     <row r="15">
@@ -6005,19 +6005,19 @@
         <v>26223</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19645</v>
+        <v>18761</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34411</v>
+        <v>34318</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.127502979574525</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0955212411613878</v>
+        <v>0.09122194483655299</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.16731369199064</v>
+        <v>0.1668651789495012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -6026,19 +6026,19 @@
         <v>61110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52300</v>
+        <v>52649</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70494</v>
+        <v>70697</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2669502357993473</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.22846586270399</v>
+        <v>0.2299926277578238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3079460871983095</v>
+        <v>0.3088316707556585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -6047,19 +6047,19 @@
         <v>87332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>76503</v>
+        <v>76407</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100875</v>
+        <v>99885</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2009572577731749</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1760378534536803</v>
+        <v>0.1758177052584538</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2321187295913723</v>
+        <v>0.2298413095336314</v>
       </c>
     </row>
     <row r="17">
@@ -6076,19 +6076,19 @@
         <v>179442</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171254</v>
+        <v>171347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>186020</v>
+        <v>186904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8724970204254751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8326863080093601</v>
+        <v>0.8331348210504981</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9044787588386123</v>
+        <v>0.9087780551634471</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -6097,19 +6097,19 @@
         <v>167808</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158424</v>
+        <v>158221</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176618</v>
+        <v>176269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7330497642006527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6920539128016907</v>
+        <v>0.6911683292443416</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7715341372960102</v>
+        <v>0.7700073722421763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>584</v>
@@ -6118,19 +6118,19 @@
         <v>347250</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>333707</v>
+        <v>334697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>358079</v>
+        <v>358175</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7990427422268251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.767881270408628</v>
+        <v>0.7701586904663685</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8239621465463198</v>
+        <v>0.8241822947415463</v>
       </c>
     </row>
     <row r="18">
@@ -6222,19 +6222,19 @@
         <v>67367</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56127</v>
+        <v>55297</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>79901</v>
+        <v>79810</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.248854519021953</v>
+        <v>0.2488545190219531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2073363335531219</v>
+        <v>0.2042684480281476</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2951571196056486</v>
+        <v>0.2948205920225788</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>209</v>
@@ -6243,19 +6243,19 @@
         <v>97953</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>85867</v>
+        <v>86894</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>109284</v>
+        <v>110656</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3713848781886629</v>
+        <v>0.3713848781886627</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3255637329523206</v>
+        <v>0.3294574007892563</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.414347974195441</v>
+        <v>0.4195493913675645</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>324</v>
@@ -6264,19 +6264,19 @@
         <v>165319</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>147002</v>
+        <v>149204</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>181079</v>
+        <v>182913</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3093222490743862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2750488595527741</v>
+        <v>0.2791684550174319</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3388084420275467</v>
+        <v>0.3422402195386908</v>
       </c>
     </row>
     <row r="20">
@@ -6293,19 +6293,19 @@
         <v>203340</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190806</v>
+        <v>190897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214580</v>
+        <v>215410</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7511454809780469</v>
+        <v>0.751145480978047</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7048428803943514</v>
+        <v>0.7051794079774214</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7926636664468782</v>
+        <v>0.7957315519718525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>251</v>
@@ -6314,19 +6314,19 @@
         <v>165797</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>154466</v>
+        <v>153094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177883</v>
+        <v>176856</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6286151218113372</v>
+        <v>0.6286151218113368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.585652025804559</v>
+        <v>0.5804506086324355</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6744362670476794</v>
+        <v>0.6705425992107437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -6335,19 +6335,19 @@
         <v>369138</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>353378</v>
+        <v>351544</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>387455</v>
+        <v>385253</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6906777509256137</v>
+        <v>0.6906777509256138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6611915579724529</v>
+        <v>0.6577597804613093</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7249511404472254</v>
+        <v>0.7208315449825681</v>
       </c>
     </row>
     <row r="21">
@@ -6439,19 +6439,19 @@
         <v>161379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139157</v>
+        <v>137146</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>189900</v>
+        <v>185078</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2242345912886676</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.193356995846265</v>
+        <v>0.1905627213068022</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2638652771798675</v>
+        <v>0.2571640902868134</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -6460,19 +6460,19 @@
         <v>336234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>310789</v>
+        <v>309966</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>360741</v>
+        <v>361390</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4355036589146803</v>
+        <v>0.4355036589146802</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4025471808649808</v>
+        <v>0.4014806588019798</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4672460426055645</v>
+        <v>0.4680875974453281</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>582</v>
@@ -6481,19 +6481,19 @@
         <v>497612</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>457097</v>
+        <v>462126</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>533669</v>
+        <v>535261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3335775711035631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3064177058810653</v>
+        <v>0.3097892750246669</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3577485772356429</v>
+        <v>0.3588158896243401</v>
       </c>
     </row>
     <row r="23">
@@ -6510,19 +6510,19 @@
         <v>558308</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>529787</v>
+        <v>534609</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>580530</v>
+        <v>582541</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7757654087113324</v>
+        <v>0.7757654087113325</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7361347228201326</v>
+        <v>0.7428359097131869</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.806643004153735</v>
+        <v>0.8094372786931977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>529</v>
@@ -6531,19 +6531,19 @@
         <v>435823</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>411316</v>
+        <v>410667</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>461268</v>
+        <v>462091</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5644963410853197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5327539573944359</v>
+        <v>0.531912402554672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5974528191350197</v>
+        <v>0.5985193411980201</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>977</v>
@@ -6552,19 +6552,19 @@
         <v>994132</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>958075</v>
+        <v>956483</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1034647</v>
+        <v>1029618</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6664224288964369</v>
+        <v>0.666422428896437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6422514227643572</v>
+        <v>0.6411841103756598</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6935822941189348</v>
+        <v>0.690210724975333</v>
       </c>
     </row>
     <row r="24">
@@ -6656,19 +6656,19 @@
         <v>97640</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81581</v>
+        <v>81068</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>117269</v>
+        <v>114175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1223448451696047</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1022224372430208</v>
+        <v>0.1015795257054054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1469402430133225</v>
+        <v>0.143063339676257</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>308</v>
@@ -6677,19 +6677,19 @@
         <v>209162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187090</v>
+        <v>188511</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>229826</v>
+        <v>230496</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2515987863567188</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2250487029417858</v>
+        <v>0.2267585593057472</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2764548879675919</v>
+        <v>0.2772609251771557</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>423</v>
@@ -6698,19 +6698,19 @@
         <v>306802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>282329</v>
+        <v>278722</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>337583</v>
+        <v>335896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1882909883273832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1732716468732052</v>
+        <v>0.171057476850045</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2071818920664729</v>
+        <v>0.2061465623617062</v>
       </c>
     </row>
     <row r="26">
@@ -6727,19 +6727,19 @@
         <v>700432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>680803</v>
+        <v>683897</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>716491</v>
+        <v>717004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8776551548303952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8530597569866774</v>
+        <v>0.8569366603237432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8977775627569793</v>
+        <v>0.8984204742945947</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>754</v>
@@ -6748,19 +6748,19 @@
         <v>622169</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>601505</v>
+        <v>600835</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>644241</v>
+        <v>642820</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7484012136432813</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7235451120324082</v>
+        <v>0.7227390748228447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7749512970582147</v>
+        <v>0.7732414406942534</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1401</v>
@@ -6769,19 +6769,19 @@
         <v>1322601</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1291820</v>
+        <v>1293507</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1347074</v>
+        <v>1350681</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8117090116726168</v>
+        <v>0.8117090116726169</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7928181079335271</v>
+        <v>0.7938534376382939</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8267283531267946</v>
+        <v>0.8289425231499551</v>
       </c>
     </row>
     <row r="27">
@@ -6873,19 +6873,19 @@
         <v>640992</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>597165</v>
+        <v>594608</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>688699</v>
+        <v>685116</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1814420991046728</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1690362338059559</v>
+        <v>0.1683124216266734</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1949462068893653</v>
+        <v>0.1939322040663885</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1946</v>
@@ -6894,19 +6894,19 @@
         <v>1209415</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1155411</v>
+        <v>1162276</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1257371</v>
+        <v>1262631</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3236365340281573</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3091852418855027</v>
+        <v>0.3110223056112455</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3364695450114094</v>
+        <v>0.3378771573235088</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2687</v>
@@ -6915,19 +6915,19 @@
         <v>1850407</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1778239</v>
+        <v>1779397</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1916670</v>
+        <v>1921008</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2545362998335526</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2446091095216363</v>
+        <v>0.2447684413526258</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2636513065882695</v>
+        <v>0.2642479649790835</v>
       </c>
     </row>
     <row r="29">
@@ -6944,19 +6944,19 @@
         <v>2891770</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2844063</v>
+        <v>2847646</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2935597</v>
+        <v>2938154</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8185579008953274</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8050537931106349</v>
+        <v>0.8060677959336114</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8309637661940441</v>
+        <v>0.8316875783733269</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3421</v>
@@ -6965,19 +6965,19 @@
         <v>2527539</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2479583</v>
+        <v>2474323</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2581543</v>
+        <v>2574678</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6763634659718427</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6635304549885905</v>
+        <v>0.6621228426764912</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6908147581144972</v>
+        <v>0.6889776943887547</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6056</v>
@@ -6986,19 +6986,19 @@
         <v>5419309</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5353046</v>
+        <v>5348708</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5491477</v>
+        <v>5490319</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7454637001664474</v>
+        <v>0.7454637001664473</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7363486934117306</v>
+        <v>0.7357520350209165</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7553908904783637</v>
+        <v>0.7552315586473742</v>
       </c>
     </row>
     <row r="30">
